--- a/src/analysis_examples/circadb/results_lomb/cosinor_10583920_eepd1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10583920_eepd1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25600369597108175, 0.3466789145396606]</t>
+          <t>[0.2563057491220566, 0.34637686138868573]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.149658477421326e-12</v>
+        <v>4.534816966383914e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>5.149658477421326e-12</v>
+        <v>4.534816966383914e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.245316006828387</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.435474112579679, 0.48711474584641207]</t>
+          <t>[0.43549717898519846, 0.4870916794408926]</t>
         </is>
       </c>
       <c r="U2" t="n">
